--- a/tests/resources/data/npx_valid.xlsx
+++ b/tests/resources/data/npx_valid.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="olink" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -44,6 +44,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -64,6 +65,7 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +142,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/tests/resources/data/npx_valid.xlsx
+++ b/tests/resources/data/npx_valid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">CIMAC_9204_07012020</t>
   </si>
@@ -29,15 +29,56 @@
   </si>
   <si>
     <t xml:space="preserve">NPX data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olink IMMUNO-ONCOLOGY(v.3111)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniprot ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P10145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OlinkID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OID00752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4ZTAE1W.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Data freq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPC Normalized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -110,12 +151,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -136,13 +189,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -155,6 +208,70 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>1.65429</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
